--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.591275174862395</v>
+        <v>0.8155043333333333</v>
       </c>
       <c r="H2">
-        <v>0.591275174862395</v>
+        <v>2.446513</v>
       </c>
       <c r="I2">
-        <v>0.05082368193160999</v>
+        <v>0.06451520947540776</v>
       </c>
       <c r="J2">
-        <v>0.05082368193160999</v>
+        <v>0.06451520947540779</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0362080219102572</v>
+        <v>0.08013433333333332</v>
       </c>
       <c r="N2">
-        <v>0.0362080219102572</v>
+        <v>0.240403</v>
       </c>
       <c r="O2">
-        <v>0.003887757000464902</v>
+        <v>0.008122697422248188</v>
       </c>
       <c r="P2">
-        <v>0.003887757000464902</v>
+        <v>0.008122697422248188</v>
       </c>
       <c r="Q2">
-        <v>0.02140890448640876</v>
+        <v>0.0653498960821111</v>
       </c>
       <c r="R2">
-        <v>0.02140890448640876</v>
+        <v>0.588149064739</v>
       </c>
       <c r="S2">
-        <v>0.0001975901252190183</v>
+        <v>0.0005240375257016965</v>
       </c>
       <c r="T2">
-        <v>0.0001975901252190183</v>
+        <v>0.0005240375257016967</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.591275174862395</v>
+        <v>0.8155043333333333</v>
       </c>
       <c r="H3">
-        <v>0.591275174862395</v>
+        <v>2.446513</v>
       </c>
       <c r="I3">
-        <v>0.05082368193160999</v>
+        <v>0.06451520947540776</v>
       </c>
       <c r="J3">
-        <v>0.05082368193160999</v>
+        <v>0.06451520947540779</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.64556279984885</v>
+        <v>7.647982</v>
       </c>
       <c r="N3">
-        <v>7.64556279984885</v>
+        <v>22.943946</v>
       </c>
       <c r="O3">
-        <v>0.8209255499037909</v>
+        <v>0.7752263117781459</v>
       </c>
       <c r="P3">
-        <v>0.8209255499037909</v>
+        <v>0.775226311778146</v>
       </c>
       <c r="Q3">
-        <v>4.520631481402051</v>
+        <v>6.236962462255333</v>
       </c>
       <c r="R3">
-        <v>4.520631481402051</v>
+        <v>56.132662160298</v>
       </c>
       <c r="S3">
-        <v>0.0417224590378423</v>
+        <v>0.05001388789521485</v>
       </c>
       <c r="T3">
-        <v>0.0417224590378423</v>
+        <v>0.05001388789521488</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.591275174862395</v>
+        <v>0.8155043333333333</v>
       </c>
       <c r="H4">
-        <v>0.591275174862395</v>
+        <v>2.446513</v>
       </c>
       <c r="I4">
-        <v>0.05082368193160999</v>
+        <v>0.06451520947540776</v>
       </c>
       <c r="J4">
-        <v>0.05082368193160999</v>
+        <v>0.06451520947540779</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.63157409818507</v>
+        <v>0.004539333333333334</v>
       </c>
       <c r="N4">
-        <v>1.63157409818507</v>
+        <v>0.013618</v>
       </c>
       <c r="O4">
-        <v>0.1751866930957443</v>
+        <v>0.0004601227667548901</v>
       </c>
       <c r="P4">
-        <v>0.1751866930957443</v>
+        <v>0.00046012276675489</v>
       </c>
       <c r="Q4">
-        <v>0.9647092602053317</v>
+        <v>0.003701846003777778</v>
       </c>
       <c r="R4">
-        <v>0.9647092602053317</v>
+        <v>0.033316614034</v>
       </c>
       <c r="S4">
-        <v>0.008903632768548686</v>
+        <v>2.968491668159592E-05</v>
       </c>
       <c r="T4">
-        <v>0.008903632768548686</v>
+        <v>2.968491668159593E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.989984608863213</v>
+        <v>0.8155043333333333</v>
       </c>
       <c r="H5">
-        <v>0.989984608863213</v>
+        <v>2.446513</v>
       </c>
       <c r="I5">
-        <v>0.08509517229395397</v>
+        <v>0.06451520947540776</v>
       </c>
       <c r="J5">
-        <v>0.08509517229395397</v>
+        <v>0.06451520947540779</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.0362080219102572</v>
+        <v>0.009266333333333333</v>
       </c>
       <c r="N5">
-        <v>0.0362080219102572</v>
+        <v>0.027799</v>
       </c>
       <c r="O5">
-        <v>0.003887757000464902</v>
+        <v>0.0009392680858436766</v>
       </c>
       <c r="P5">
-        <v>0.003887757000464902</v>
+        <v>0.0009392680858436766</v>
       </c>
       <c r="Q5">
-        <v>0.03584538440853662</v>
+        <v>0.007556734987444444</v>
       </c>
       <c r="R5">
-        <v>0.03584538440853662</v>
+        <v>0.068010614887</v>
       </c>
       <c r="S5">
-        <v>0.0003308293517915865</v>
+        <v>6.059707731177007E-05</v>
       </c>
       <c r="T5">
-        <v>0.0003308293517915865</v>
+        <v>6.05970773117701E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.989984608863213</v>
+        <v>0.8155043333333333</v>
       </c>
       <c r="H6">
-        <v>0.989984608863213</v>
+        <v>2.446513</v>
       </c>
       <c r="I6">
-        <v>0.08509517229395397</v>
+        <v>0.06451520947540776</v>
       </c>
       <c r="J6">
-        <v>0.08509517229395397</v>
+        <v>0.06451520947540779</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.64556279984885</v>
+        <v>2.123561</v>
       </c>
       <c r="N6">
-        <v>7.64556279984885</v>
+        <v>6.370683</v>
       </c>
       <c r="O6">
-        <v>0.8209255499037909</v>
+        <v>0.2152515999470071</v>
       </c>
       <c r="P6">
-        <v>0.8209255499037909</v>
+        <v>0.2152515999470071</v>
       </c>
       <c r="Q6">
-        <v>7.568989497947496</v>
+        <v>1.731773197597667</v>
       </c>
       <c r="R6">
-        <v>7.568989497947496</v>
+        <v>15.585958778379</v>
       </c>
       <c r="S6">
-        <v>0.06985680110957199</v>
+        <v>0.01388700206049783</v>
       </c>
       <c r="T6">
-        <v>0.06985680110957199</v>
+        <v>0.01388700206049784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.989984608863213</v>
+        <v>1.070199666666667</v>
       </c>
       <c r="H7">
-        <v>0.989984608863213</v>
+        <v>3.210599</v>
       </c>
       <c r="I7">
-        <v>0.08509517229395397</v>
+        <v>0.08466436394433004</v>
       </c>
       <c r="J7">
-        <v>0.08509517229395397</v>
+        <v>0.08466436394433006</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.63157409818507</v>
+        <v>0.08013433333333332</v>
       </c>
       <c r="N7">
-        <v>1.63157409818507</v>
+        <v>0.240403</v>
       </c>
       <c r="O7">
-        <v>0.1751866930957443</v>
+        <v>0.008122697422248188</v>
       </c>
       <c r="P7">
-        <v>0.1751866930957443</v>
+        <v>0.008122697422248188</v>
       </c>
       <c r="Q7">
-        <v>1.615233245423096</v>
+        <v>0.08575973682188888</v>
       </c>
       <c r="R7">
-        <v>1.615233245423096</v>
+        <v>0.771837631397</v>
       </c>
       <c r="S7">
-        <v>0.0149075418325904</v>
+        <v>0.0006877030107668919</v>
       </c>
       <c r="T7">
-        <v>0.0149075418325904</v>
+        <v>0.0006877030107668923</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,122 +906,122 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.48043758545582</v>
+        <v>1.070199666666667</v>
       </c>
       <c r="H8">
-        <v>1.48043758545582</v>
+        <v>3.210599</v>
       </c>
       <c r="I8">
-        <v>0.1272525757238461</v>
+        <v>0.08466436394433004</v>
       </c>
       <c r="J8">
-        <v>0.1272525757238461</v>
+        <v>0.08466436394433006</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0362080219102572</v>
+        <v>7.647982</v>
       </c>
       <c r="N8">
-        <v>0.0362080219102572</v>
+        <v>22.943946</v>
       </c>
       <c r="O8">
-        <v>0.003887757000464902</v>
+        <v>0.7752263117781459</v>
       </c>
       <c r="P8">
-        <v>0.003887757000464902</v>
+        <v>0.775226311778146</v>
       </c>
       <c r="Q8">
-        <v>0.0536037165309526</v>
+        <v>8.184867787072667</v>
       </c>
       <c r="R8">
-        <v>0.0536037165309526</v>
+        <v>73.663810083654</v>
       </c>
       <c r="S8">
-        <v>0.0004947270920975728</v>
+        <v>0.06563404259960562</v>
       </c>
       <c r="T8">
-        <v>0.0004947270920975728</v>
+        <v>0.06563404259960565</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.48043758545582</v>
+        <v>1.070199666666667</v>
       </c>
       <c r="H9">
-        <v>1.48043758545582</v>
+        <v>3.210599</v>
       </c>
       <c r="I9">
-        <v>0.1272525757238461</v>
+        <v>0.08466436394433004</v>
       </c>
       <c r="J9">
-        <v>0.1272525757238461</v>
+        <v>0.08466436394433006</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>7.64556279984885</v>
+        <v>0.004539333333333334</v>
       </c>
       <c r="N9">
-        <v>7.64556279984885</v>
+        <v>0.013618</v>
       </c>
       <c r="O9">
-        <v>0.8209255499037909</v>
+        <v>0.0004601227667548901</v>
       </c>
       <c r="P9">
-        <v>0.8209255499037909</v>
+        <v>0.00046012276675489</v>
       </c>
       <c r="Q9">
-        <v>11.31877853085907</v>
+        <v>0.004857993020222223</v>
       </c>
       <c r="R9">
-        <v>11.31877853085907</v>
+        <v>0.043721937182</v>
       </c>
       <c r="S9">
-        <v>0.1044648907027722</v>
+        <v>3.89560013836081E-05</v>
       </c>
       <c r="T9">
-        <v>0.1044648907027722</v>
+        <v>3.89560013836081E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.48043758545582</v>
+        <v>1.070199666666667</v>
       </c>
       <c r="H10">
-        <v>1.48043758545582</v>
+        <v>3.210599</v>
       </c>
       <c r="I10">
-        <v>0.1272525757238461</v>
+        <v>0.08466436394433004</v>
       </c>
       <c r="J10">
-        <v>0.1272525757238461</v>
+        <v>0.08466436394433006</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.63157409818507</v>
+        <v>0.009266333333333333</v>
       </c>
       <c r="N10">
-        <v>1.63157409818507</v>
+        <v>0.027799</v>
       </c>
       <c r="O10">
-        <v>0.1751866930957443</v>
+        <v>0.0009392680858436766</v>
       </c>
       <c r="P10">
-        <v>0.1751866930957443</v>
+        <v>0.0009392680858436766</v>
       </c>
       <c r="Q10">
-        <v>2.415443618409362</v>
+        <v>0.009916826844555556</v>
       </c>
       <c r="R10">
-        <v>2.415443618409362</v>
+        <v>0.08925144160100001</v>
       </c>
       <c r="S10">
-        <v>0.0222929579289764</v>
+        <v>7.952253506116327E-05</v>
       </c>
       <c r="T10">
-        <v>0.0222929579289764</v>
+        <v>7.952253506116329E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.58642026748336</v>
+        <v>1.070199666666667</v>
       </c>
       <c r="H11">
-        <v>1.58642026748336</v>
+        <v>3.210599</v>
       </c>
       <c r="I11">
-        <v>0.13636242905547</v>
+        <v>0.08466436394433004</v>
       </c>
       <c r="J11">
-        <v>0.13636242905547</v>
+        <v>0.08466436394433006</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.0362080219102572</v>
+        <v>2.123561</v>
       </c>
       <c r="N11">
-        <v>0.0362080219102572</v>
+        <v>6.370683</v>
       </c>
       <c r="O11">
-        <v>0.003887757000464902</v>
+        <v>0.2152515999470071</v>
       </c>
       <c r="P11">
-        <v>0.003887757000464902</v>
+        <v>0.2152515999470071</v>
       </c>
       <c r="Q11">
-        <v>0.05744113980391359</v>
+        <v>2.272634274346333</v>
       </c>
       <c r="R11">
-        <v>0.05744113980391359</v>
+        <v>20.453708469117</v>
       </c>
       <c r="S11">
-        <v>0.0005301439881608019</v>
+        <v>0.01822413979751274</v>
       </c>
       <c r="T11">
-        <v>0.0005301439881608019</v>
+        <v>0.01822413979751275</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.58642026748336</v>
+        <v>1.792556333333333</v>
       </c>
       <c r="H12">
-        <v>1.58642026748336</v>
+        <v>5.377669</v>
       </c>
       <c r="I12">
-        <v>0.13636242905547</v>
+        <v>0.1418105859336969</v>
       </c>
       <c r="J12">
-        <v>0.13636242905547</v>
+        <v>0.1418105859336969</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.64556279984885</v>
+        <v>0.08013433333333332</v>
       </c>
       <c r="N12">
-        <v>7.64556279984885</v>
+        <v>0.240403</v>
       </c>
       <c r="O12">
-        <v>0.8209255499037909</v>
+        <v>0.008122697422248188</v>
       </c>
       <c r="P12">
-        <v>0.8209255499037909</v>
+        <v>0.008122697422248188</v>
       </c>
       <c r="Q12">
-        <v>12.12907578199704</v>
+        <v>0.1436453067341111</v>
       </c>
       <c r="R12">
-        <v>12.12907578199704</v>
+        <v>1.292807760607</v>
       </c>
       <c r="S12">
-        <v>0.1119434020585783</v>
+        <v>0.001151884480811145</v>
       </c>
       <c r="T12">
-        <v>0.1119434020585783</v>
+        <v>0.001151884480811145</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.58642026748336</v>
+        <v>1.792556333333333</v>
       </c>
       <c r="H13">
-        <v>1.58642026748336</v>
+        <v>5.377669</v>
       </c>
       <c r="I13">
-        <v>0.13636242905547</v>
+        <v>0.1418105859336969</v>
       </c>
       <c r="J13">
-        <v>0.13636242905547</v>
+        <v>0.1418105859336969</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.63157409818507</v>
+        <v>7.647982</v>
       </c>
       <c r="N13">
-        <v>1.63157409818507</v>
+        <v>22.943946</v>
       </c>
       <c r="O13">
-        <v>0.1751866930957443</v>
+        <v>0.7752263117781459</v>
       </c>
       <c r="P13">
-        <v>0.1751866930957443</v>
+        <v>0.775226311778146</v>
       </c>
       <c r="Q13">
-        <v>2.588362217261681</v>
+        <v>13.70943857131933</v>
       </c>
       <c r="R13">
-        <v>2.588362217261681</v>
+        <v>123.384947141874</v>
       </c>
       <c r="S13">
-        <v>0.02388888300873083</v>
+        <v>0.1099352975044777</v>
       </c>
       <c r="T13">
-        <v>0.02388888300873083</v>
+        <v>0.1099352975044777</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.20817116431918</v>
+        <v>1.792556333333333</v>
       </c>
       <c r="H14">
-        <v>6.20817116431918</v>
+        <v>5.377669</v>
       </c>
       <c r="I14">
-        <v>0.5336299070999911</v>
+        <v>0.1418105859336969</v>
       </c>
       <c r="J14">
-        <v>0.5336299070999911</v>
+        <v>0.1418105859336969</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.0362080219102572</v>
+        <v>0.004539333333333334</v>
       </c>
       <c r="N14">
-        <v>0.0362080219102572</v>
+        <v>0.013618</v>
       </c>
       <c r="O14">
-        <v>0.003887757000464902</v>
+        <v>0.0004601227667548901</v>
       </c>
       <c r="P14">
-        <v>0.003887757000464902</v>
+        <v>0.00046012276675489</v>
       </c>
       <c r="Q14">
-        <v>0.2247855975402958</v>
+        <v>0.008137010715777779</v>
       </c>
       <c r="R14">
-        <v>0.2247855975402958</v>
+        <v>0.073233096442</v>
       </c>
       <c r="S14">
-        <v>0.002074623406985426</v>
+        <v>6.525027915494473E-05</v>
       </c>
       <c r="T14">
-        <v>0.002074623406985426</v>
+        <v>6.525027915494473E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.20817116431918</v>
+        <v>1.792556333333333</v>
       </c>
       <c r="H15">
-        <v>6.20817116431918</v>
+        <v>5.377669</v>
       </c>
       <c r="I15">
-        <v>0.5336299070999911</v>
+        <v>0.1418105859336969</v>
       </c>
       <c r="J15">
-        <v>0.5336299070999911</v>
+        <v>0.1418105859336969</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>7.64556279984885</v>
+        <v>0.009266333333333333</v>
       </c>
       <c r="N15">
-        <v>7.64556279984885</v>
+        <v>0.027799</v>
       </c>
       <c r="O15">
-        <v>0.8209255499037909</v>
+        <v>0.0009392680858436766</v>
       </c>
       <c r="P15">
-        <v>0.8209255499037909</v>
+        <v>0.0009392680858436766</v>
       </c>
       <c r="Q15">
-        <v>47.46496250901304</v>
+        <v>0.01661042450344444</v>
       </c>
       <c r="R15">
-        <v>47.46496250901304</v>
+        <v>0.149493820531</v>
       </c>
       <c r="S15">
-        <v>0.438070424931169</v>
+        <v>0.0001331981576023137</v>
       </c>
       <c r="T15">
-        <v>0.438070424931169</v>
+        <v>0.0001331981576023137</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,57 +1405,57 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.20817116431918</v>
+        <v>1.792556333333333</v>
       </c>
       <c r="H16">
-        <v>6.20817116431918</v>
+        <v>5.377669</v>
       </c>
       <c r="I16">
-        <v>0.5336299070999911</v>
+        <v>0.1418105859336969</v>
       </c>
       <c r="J16">
-        <v>0.5336299070999911</v>
+        <v>0.1418105859336969</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.63157409818507</v>
+        <v>2.123561</v>
       </c>
       <c r="N16">
-        <v>1.63157409818507</v>
+        <v>6.370683</v>
       </c>
       <c r="O16">
-        <v>0.1751866930957443</v>
+        <v>0.2152515999470071</v>
       </c>
       <c r="P16">
-        <v>0.1751866930957443</v>
+        <v>0.2152515999470071</v>
       </c>
       <c r="Q16">
-        <v>10.12909126880262</v>
+        <v>3.806602719769667</v>
       </c>
       <c r="R16">
-        <v>10.12909126880262</v>
+        <v>34.259424477927</v>
       </c>
       <c r="S16">
-        <v>0.09348485876183671</v>
+        <v>0.0305249555116508</v>
       </c>
       <c r="T16">
-        <v>0.09348485876183671</v>
+        <v>0.03052495551165081</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.777562828617253</v>
+        <v>1.782737666666667</v>
       </c>
       <c r="H17">
-        <v>0.777562828617253</v>
+        <v>5.348212999999999</v>
       </c>
       <c r="I17">
-        <v>0.06683623389512884</v>
+        <v>0.1410338232472499</v>
       </c>
       <c r="J17">
-        <v>0.06683623389512884</v>
+        <v>0.1410338232472499</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.0362080219102572</v>
+        <v>0.08013433333333332</v>
       </c>
       <c r="N17">
-        <v>0.0362080219102572</v>
+        <v>0.240403</v>
       </c>
       <c r="O17">
-        <v>0.003887757000464902</v>
+        <v>0.008122697422248188</v>
       </c>
       <c r="P17">
-        <v>0.003887757000464902</v>
+        <v>0.008122697422248188</v>
       </c>
       <c r="Q17">
-        <v>0.02815401193517506</v>
+        <v>0.1428584944265555</v>
       </c>
       <c r="R17">
-        <v>0.02815401193517506</v>
+        <v>1.285726449839</v>
       </c>
       <c r="S17">
-        <v>0.0002598430362104967</v>
+        <v>0.001145575072540243</v>
       </c>
       <c r="T17">
-        <v>0.0002598430362104967</v>
+        <v>0.001145575072540243</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,114 +1529,858 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.777562828617253</v>
+        <v>1.782737666666667</v>
       </c>
       <c r="H18">
-        <v>0.777562828617253</v>
+        <v>5.348212999999999</v>
       </c>
       <c r="I18">
-        <v>0.06683623389512884</v>
+        <v>0.1410338232472499</v>
       </c>
       <c r="J18">
-        <v>0.06683623389512884</v>
+        <v>0.1410338232472499</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.64556279984885</v>
+        <v>7.647982</v>
       </c>
       <c r="N18">
-        <v>7.64556279984885</v>
+        <v>22.943946</v>
       </c>
       <c r="O18">
-        <v>0.8209255499037909</v>
+        <v>0.7752263117781459</v>
       </c>
       <c r="P18">
-        <v>0.8209255499037909</v>
+        <v>0.775226311778146</v>
       </c>
       <c r="Q18">
-        <v>5.944905437021316</v>
+        <v>13.63434558538867</v>
       </c>
       <c r="R18">
-        <v>5.944905437021316</v>
+        <v>122.709110268498</v>
       </c>
       <c r="S18">
-        <v>0.05486757206385703</v>
+        <v>0.1093331306319364</v>
       </c>
       <c r="T18">
-        <v>0.05486757206385703</v>
+        <v>0.1093331306319365</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.782737666666667</v>
+      </c>
+      <c r="H19">
+        <v>5.348212999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.1410338232472499</v>
+      </c>
+      <c r="J19">
+        <v>0.1410338232472499</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.004539333333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.013618</v>
+      </c>
+      <c r="O19">
+        <v>0.0004601227667548901</v>
+      </c>
+      <c r="P19">
+        <v>0.00046012276675489</v>
+      </c>
+      <c r="Q19">
+        <v>0.00809244051488889</v>
+      </c>
+      <c r="R19">
+        <v>0.07283196463399999</v>
+      </c>
+      <c r="S19">
+        <v>6.489287295854474E-05</v>
+      </c>
+      <c r="T19">
+        <v>6.489287295854475E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.782737666666667</v>
+      </c>
+      <c r="H20">
+        <v>5.348212999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.1410338232472499</v>
+      </c>
+      <c r="J20">
+        <v>0.1410338232472499</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.009266333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.027799</v>
+      </c>
+      <c r="O20">
+        <v>0.0009392680858436766</v>
+      </c>
+      <c r="P20">
+        <v>0.0009392680858436766</v>
+      </c>
+      <c r="Q20">
+        <v>0.01651944146522222</v>
+      </c>
+      <c r="R20">
+        <v>0.148674973187</v>
+      </c>
+      <c r="S20">
+        <v>0.0001324685692006598</v>
+      </c>
+      <c r="T20">
+        <v>0.0001324685692006598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.782737666666667</v>
+      </c>
+      <c r="H21">
+        <v>5.348212999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.1410338232472499</v>
+      </c>
+      <c r="J21">
+        <v>0.1410338232472499</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.123561</v>
+      </c>
+      <c r="N21">
+        <v>6.370683</v>
+      </c>
+      <c r="O21">
+        <v>0.2152515999470071</v>
+      </c>
+      <c r="P21">
+        <v>0.2152515999470071</v>
+      </c>
+      <c r="Q21">
+        <v>3.785752182164333</v>
+      </c>
+      <c r="R21">
+        <v>34.07176963947899</v>
+      </c>
+      <c r="S21">
+        <v>0.03035775610061394</v>
+      </c>
+      <c r="T21">
+        <v>0.03035775610061395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.337404666666667</v>
+      </c>
+      <c r="H22">
+        <v>19.012214</v>
+      </c>
+      <c r="I22">
+        <v>0.5013572250796461</v>
+      </c>
+      <c r="J22">
+        <v>0.5013572250796462</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.08013433333333332</v>
+      </c>
+      <c r="N22">
+        <v>0.240403</v>
+      </c>
+      <c r="O22">
+        <v>0.008122697422248188</v>
+      </c>
+      <c r="P22">
+        <v>0.008122697422248188</v>
+      </c>
+      <c r="Q22">
+        <v>0.5078436980268889</v>
+      </c>
+      <c r="R22">
+        <v>4.570593282241999</v>
+      </c>
+      <c r="S22">
+        <v>0.004072373039779946</v>
+      </c>
+      <c r="T22">
+        <v>0.004072373039779946</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.337404666666667</v>
+      </c>
+      <c r="H23">
+        <v>19.012214</v>
+      </c>
+      <c r="I23">
+        <v>0.5013572250796461</v>
+      </c>
+      <c r="J23">
+        <v>0.5013572250796462</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.647982</v>
+      </c>
+      <c r="N23">
+        <v>22.943946</v>
+      </c>
+      <c r="O23">
+        <v>0.7752263117781459</v>
+      </c>
+      <c r="P23">
+        <v>0.775226311778146</v>
+      </c>
+      <c r="Q23">
+        <v>48.46835681738267</v>
+      </c>
+      <c r="R23">
+        <v>436.215211356444</v>
+      </c>
+      <c r="S23">
+        <v>0.3886653124818198</v>
+      </c>
+      <c r="T23">
+        <v>0.38866531248182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.337404666666667</v>
+      </c>
+      <c r="H24">
+        <v>19.012214</v>
+      </c>
+      <c r="I24">
+        <v>0.5013572250796461</v>
+      </c>
+      <c r="J24">
+        <v>0.5013572250796462</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.004539333333333334</v>
+      </c>
+      <c r="N24">
+        <v>0.013618</v>
+      </c>
+      <c r="O24">
+        <v>0.0004601227667548901</v>
+      </c>
+      <c r="P24">
+        <v>0.00046012276675489</v>
+      </c>
+      <c r="Q24">
+        <v>0.02876759225022223</v>
+      </c>
+      <c r="R24">
+        <v>0.258908330252</v>
+      </c>
+      <c r="S24">
+        <v>0.0002306858735362009</v>
+      </c>
+      <c r="T24">
+        <v>0.000230685873536201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.337404666666667</v>
+      </c>
+      <c r="H25">
+        <v>19.012214</v>
+      </c>
+      <c r="I25">
+        <v>0.5013572250796461</v>
+      </c>
+      <c r="J25">
+        <v>0.5013572250796462</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.009266333333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.027799</v>
+      </c>
+      <c r="O25">
+        <v>0.0009392680858436766</v>
+      </c>
+      <c r="P25">
+        <v>0.0009392680858436766</v>
+      </c>
+      <c r="Q25">
+        <v>0.05872450410955556</v>
+      </c>
+      <c r="R25">
+        <v>0.528520536986</v>
+      </c>
+      <c r="S25">
+        <v>0.0004709088411244565</v>
+      </c>
+      <c r="T25">
+        <v>0.0004709088411244566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.777562828617253</v>
-      </c>
-      <c r="H19">
-        <v>0.777562828617253</v>
-      </c>
-      <c r="I19">
-        <v>0.06683623389512884</v>
-      </c>
-      <c r="J19">
-        <v>0.06683623389512884</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.63157409818507</v>
-      </c>
-      <c r="N19">
-        <v>1.63157409818507</v>
-      </c>
-      <c r="O19">
-        <v>0.1751866930957443</v>
-      </c>
-      <c r="P19">
-        <v>0.1751866930957443</v>
-      </c>
-      <c r="Q19">
-        <v>1.268651370883427</v>
-      </c>
-      <c r="R19">
-        <v>1.268651370883427</v>
-      </c>
-      <c r="S19">
-        <v>0.01170881879506132</v>
-      </c>
-      <c r="T19">
-        <v>0.01170881879506132</v>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.337404666666667</v>
+      </c>
+      <c r="H26">
+        <v>19.012214</v>
+      </c>
+      <c r="I26">
+        <v>0.5013572250796461</v>
+      </c>
+      <c r="J26">
+        <v>0.5013572250796462</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.123561</v>
+      </c>
+      <c r="N26">
+        <v>6.370683</v>
+      </c>
+      <c r="O26">
+        <v>0.2152515999470071</v>
+      </c>
+      <c r="P26">
+        <v>0.2152515999470071</v>
+      </c>
+      <c r="Q26">
+        <v>13.45786539135133</v>
+      </c>
+      <c r="R26">
+        <v>121.120788522162</v>
+      </c>
+      <c r="S26">
+        <v>0.1079179448433856</v>
+      </c>
+      <c r="T26">
+        <v>0.1079179448433856</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.8420946666666667</v>
+      </c>
+      <c r="H27">
+        <v>2.526284</v>
+      </c>
+      <c r="I27">
+        <v>0.06661879231966927</v>
+      </c>
+      <c r="J27">
+        <v>0.06661879231966929</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.08013433333333332</v>
+      </c>
+      <c r="N27">
+        <v>0.240403</v>
+      </c>
+      <c r="O27">
+        <v>0.008122697422248188</v>
+      </c>
+      <c r="P27">
+        <v>0.008122697422248188</v>
+      </c>
+      <c r="Q27">
+        <v>0.06748069471688888</v>
+      </c>
+      <c r="R27">
+        <v>0.6073262524519999</v>
+      </c>
+      <c r="S27">
+        <v>0.0005411242926482649</v>
+      </c>
+      <c r="T27">
+        <v>0.0005411242926482651</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.8420946666666667</v>
+      </c>
+      <c r="H28">
+        <v>2.526284</v>
+      </c>
+      <c r="I28">
+        <v>0.06661879231966927</v>
+      </c>
+      <c r="J28">
+        <v>0.06661879231966929</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>7.647982</v>
+      </c>
+      <c r="N28">
+        <v>22.943946</v>
+      </c>
+      <c r="O28">
+        <v>0.7752263117781459</v>
+      </c>
+      <c r="P28">
+        <v>0.775226311778146</v>
+      </c>
+      <c r="Q28">
+        <v>6.440324852962666</v>
+      </c>
+      <c r="R28">
+        <v>57.962923676664</v>
+      </c>
+      <c r="S28">
+        <v>0.05164464066509149</v>
+      </c>
+      <c r="T28">
+        <v>0.0516446406650915</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.8420946666666667</v>
+      </c>
+      <c r="H29">
+        <v>2.526284</v>
+      </c>
+      <c r="I29">
+        <v>0.06661879231966927</v>
+      </c>
+      <c r="J29">
+        <v>0.06661879231966929</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.004539333333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.013618</v>
+      </c>
+      <c r="O29">
+        <v>0.0004601227667548901</v>
+      </c>
+      <c r="P29">
+        <v>0.00046012276675489</v>
+      </c>
+      <c r="Q29">
+        <v>0.003822548390222222</v>
+      </c>
+      <c r="R29">
+        <v>0.034402935512</v>
+      </c>
+      <c r="S29">
+        <v>3.065282303999565E-05</v>
+      </c>
+      <c r="T29">
+        <v>3.065282303999565E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.8420946666666667</v>
+      </c>
+      <c r="H30">
+        <v>2.526284</v>
+      </c>
+      <c r="I30">
+        <v>0.06661879231966927</v>
+      </c>
+      <c r="J30">
+        <v>0.06661879231966929</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.009266333333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.027799</v>
+      </c>
+      <c r="O30">
+        <v>0.0009392680858436766</v>
+      </c>
+      <c r="P30">
+        <v>0.0009392680858436766</v>
+      </c>
+      <c r="Q30">
+        <v>0.007803129879555555</v>
+      </c>
+      <c r="R30">
+        <v>0.07022816891600001</v>
+      </c>
+      <c r="S30">
+        <v>6.257290554331318E-05</v>
+      </c>
+      <c r="T30">
+        <v>6.25729055433132E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.8420946666666667</v>
+      </c>
+      <c r="H31">
+        <v>2.526284</v>
+      </c>
+      <c r="I31">
+        <v>0.06661879231966927</v>
+      </c>
+      <c r="J31">
+        <v>0.06661879231966929</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.123561</v>
+      </c>
+      <c r="N31">
+        <v>6.370683</v>
+      </c>
+      <c r="O31">
+        <v>0.2152515999470071</v>
+      </c>
+      <c r="P31">
+        <v>0.2152515999470071</v>
+      </c>
+      <c r="Q31">
+        <v>1.788239392441333</v>
+      </c>
+      <c r="R31">
+        <v>16.094154531972</v>
+      </c>
+      <c r="S31">
+        <v>0.0143398016333462</v>
+      </c>
+      <c r="T31">
+        <v>0.0143398016333462</v>
       </c>
     </row>
   </sheetData>
